--- a/ind_mapping_schemes/mapping_Montenegro_IND.xlsx
+++ b/ind_mapping_schemes/mapping_Montenegro_IND.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/Exposure_model_validation/ind_mapping_schemes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helencrowley/Documents/5-GitHub/esrm20_exposure/ind_mapping_schemes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98992F5-3661-B042-93BA-BEB6C5C5CD35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E1E573-4621-2F4A-9EB3-95A02B35F6A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="19060" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 14% CR/LWAL+CDM/H:2
 6% CR/LFINF+CDL/H:2
 43% CR+PC/LFM+CDL/H:1
-3% S/LFM+CDL/RME/H:1
+3% S/LFM+CDL/H:1
 1% S/LFM+CDL/HBET:3-5
 11% S/LFBR+CDM/H:1
 5% S/LFBR+CDM/HBET:3-5
@@ -444,7 +444,7 @@
   <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
